--- a/data.xlsx
+++ b/data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="67">
   <si>
     <t>URL</t>
   </si>
@@ -217,6 +217,9 @@
   </si>
   <si>
     <t>http://cloud.oracle.com</t>
+  </si>
+  <si>
+    <t>Changelogs</t>
   </si>
 </sst>
 </file>
@@ -229,6 +232,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -632,21 +636,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="4" max="4" width="12.5" customWidth="1"/>
-    <col min="5" max="5" width="17.83203125" customWidth="1"/>
-    <col min="6" max="6" width="50.5" customWidth="1"/>
+    <col min="2" max="2" width="7.1640625" customWidth="1"/>
+    <col min="3" max="3" width="7.83203125" customWidth="1"/>
+    <col min="4" max="6" width="10.83203125" customWidth="1"/>
+    <col min="7" max="7" width="50.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>43</v>
       </c>
@@ -660,13 +665,16 @@
         <v>17</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -679,14 +687,17 @@
       <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1">
         <v>42234</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>52</v>
       </c>
@@ -699,14 +710,17 @@
       <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1">
         <v>42865</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -719,14 +733,17 @@
       <c r="D4" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="1">
         <v>42865</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -739,14 +756,17 @@
       <c r="D5" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1">
         <v>42512</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>60</v>
       </c>
@@ -757,16 +777,19 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="1">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1">
         <v>42865</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -779,14 +802,17 @@
       <c r="D7" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="1">
         <v>42850</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -799,14 +825,17 @@
       <c r="D8" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="1">
         <v>42851</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>44</v>
       </c>
@@ -819,14 +848,17 @@
       <c r="D9" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="1">
         <v>42848</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="G9" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -839,14 +871,17 @@
       <c r="D10" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="1">
         <v>42865</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="G10" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -859,14 +894,17 @@
       <c r="D11" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="1">
         <v>42865</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="G11" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -879,14 +917,17 @@
       <c r="D12" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="1">
         <v>42854</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="G12" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>48</v>
       </c>
@@ -899,14 +940,17 @@
       <c r="D13" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="1">
         <v>42660</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="G13" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>57</v>
       </c>
@@ -919,14 +963,17 @@
       <c r="D14" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="1">
         <v>42859</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="G14" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -939,14 +986,17 @@
       <c r="D15" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="1">
         <v>42864</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="G15" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -959,14 +1009,17 @@
       <c r="D16" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="1">
         <v>42865</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="G16" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -979,14 +1032,17 @@
       <c r="D17" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="1">
         <v>42865</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="G17" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -999,14 +1055,17 @@
       <c r="D18" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="1">
         <v>42865</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="G18" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -1019,14 +1078,17 @@
       <c r="D19" t="s">
         <v>5</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="1">
         <v>42853</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="G19" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -1039,14 +1101,17 @@
       <c r="D20" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="1">
         <v>41369</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="G20" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -1059,14 +1124,17 @@
       <c r="D21" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="1">
         <v>42847</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="G21" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -1079,14 +1147,17 @@
       <c r="D22" t="s">
         <v>5</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="1">
         <v>42705</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="G22" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -1099,14 +1170,17 @@
       <c r="D23" t="s">
         <v>5</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="1">
         <v>42830</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="G23" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>58</v>
       </c>
@@ -1119,14 +1193,17 @@
       <c r="D24" t="s">
         <v>5</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="1">
         <v>42496</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="G24" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -1139,14 +1216,17 @@
       <c r="D25" t="s">
         <v>5</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="1">
         <v>42826</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="G25" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -1159,14 +1239,17 @@
       <c r="D26" t="s">
         <v>5</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="1">
         <v>42857</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="G26" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>40</v>
       </c>
@@ -1177,16 +1260,19 @@
         <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>5</v>
-      </c>
-      <c r="E27" s="1">
+        <v>4</v>
+      </c>
+      <c r="E27" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="1">
         <v>42865</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="G27" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>46</v>
       </c>
@@ -1199,14 +1285,17 @@
       <c r="D28" t="s">
         <v>4</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" s="1">
         <v>42837</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="G28" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -1219,14 +1308,17 @@
       <c r="D29" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="1">
         <v>42743</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="G29" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>54</v>
       </c>
@@ -1239,10 +1331,13 @@
       <c r="D30" t="s">
         <v>4</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" s="1">
         <v>42865</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="G30" s="4" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1251,35 +1346,35 @@
     <sortCondition ref="A1"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="F23" r:id="rId1"/>
-    <hyperlink ref="F19" r:id="rId2"/>
-    <hyperlink ref="F25" r:id="rId3"/>
-    <hyperlink ref="F7" r:id="rId4"/>
-    <hyperlink ref="F4" r:id="rId5"/>
-    <hyperlink ref="F26" r:id="rId6"/>
-    <hyperlink ref="F15" r:id="rId7"/>
-    <hyperlink ref="F17" r:id="rId8"/>
-    <hyperlink ref="F11" r:id="rId9"/>
-    <hyperlink ref="F18" r:id="rId10"/>
-    <hyperlink ref="F12" r:id="rId11"/>
-    <hyperlink ref="F21" r:id="rId12"/>
-    <hyperlink ref="F8" r:id="rId13"/>
-    <hyperlink ref="F16" r:id="rId14"/>
-    <hyperlink ref="F5" r:id="rId15"/>
-    <hyperlink ref="F27" r:id="rId16"/>
-    <hyperlink ref="F9" r:id="rId17"/>
-    <hyperlink ref="F28" r:id="rId18"/>
-    <hyperlink ref="F13" r:id="rId19"/>
-    <hyperlink ref="F2" r:id="rId20"/>
-    <hyperlink ref="F30" r:id="rId21"/>
-    <hyperlink ref="F3" r:id="rId22"/>
-    <hyperlink ref="F24" r:id="rId23"/>
-    <hyperlink ref="F14" r:id="rId24"/>
-    <hyperlink ref="F6" r:id="rId25"/>
-    <hyperlink ref="F20" r:id="rId26"/>
-    <hyperlink ref="F10" r:id="rId27"/>
-    <hyperlink ref="F29" r:id="rId28"/>
-    <hyperlink ref="F22" r:id="rId29"/>
+    <hyperlink ref="G23" r:id="rId1"/>
+    <hyperlink ref="G19" r:id="rId2"/>
+    <hyperlink ref="G25" r:id="rId3"/>
+    <hyperlink ref="G7" r:id="rId4"/>
+    <hyperlink ref="G4" r:id="rId5"/>
+    <hyperlink ref="G26" r:id="rId6"/>
+    <hyperlink ref="G15" r:id="rId7"/>
+    <hyperlink ref="G17" r:id="rId8"/>
+    <hyperlink ref="G11" r:id="rId9"/>
+    <hyperlink ref="G18" r:id="rId10"/>
+    <hyperlink ref="G12" r:id="rId11"/>
+    <hyperlink ref="G21" r:id="rId12"/>
+    <hyperlink ref="G8" r:id="rId13"/>
+    <hyperlink ref="G16" r:id="rId14"/>
+    <hyperlink ref="G5" r:id="rId15"/>
+    <hyperlink ref="G27" r:id="rId16"/>
+    <hyperlink ref="G9" r:id="rId17"/>
+    <hyperlink ref="G28" r:id="rId18"/>
+    <hyperlink ref="G13" r:id="rId19"/>
+    <hyperlink ref="G2" r:id="rId20"/>
+    <hyperlink ref="G30" r:id="rId21"/>
+    <hyperlink ref="G3" r:id="rId22"/>
+    <hyperlink ref="G24" r:id="rId23"/>
+    <hyperlink ref="G14" r:id="rId24"/>
+    <hyperlink ref="G6" r:id="rId25"/>
+    <hyperlink ref="G20" r:id="rId26"/>
+    <hyperlink ref="G10" r:id="rId27"/>
+    <hyperlink ref="G29" r:id="rId28"/>
+    <hyperlink ref="G22" r:id="rId29"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -639,7 +639,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -708,7 +708,7 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>
